--- a/Assets/ExcelImporter/KengekiTextData.xlsx
+++ b/Assets/ExcelImporter/KengekiTextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\Kengeki\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6007C357-44A5-4017-BCE5-05175BB682C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02123FC4-190F-4518-8CDE-35B44D9DA495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822175BC-1D9F-4324-B19C-BC0124F77379}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1"/>
@@ -48,28 +48,6 @@
   </si>
   <si>
     <t>SystemMSG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近くに敵反応の確認。\n敵殲滅の推奨。</t>
-    <rPh sb="0" eb="1">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハンノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>テキセンメツ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>スイショウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -97,6 +75,38 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ヨソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くに敵反応を複数確認。\n敵殲滅の推奨。</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>テキセンメツ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>スイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くに強い敵反応の確認。\n敵殲滅の推奨。</t>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -465,7 +475,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -493,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -504,7 +514,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -513,6 +523,9 @@
       </c>
       <c r="B4">
         <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelImporter/KengekiTextData.xlsx
+++ b/Assets/ExcelImporter/KengekiTextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\Kengeki\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02123FC4-190F-4518-8CDE-35B44D9DA495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C05DEA-67E2-4AC6-B773-3C8F9B7BB0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822175BC-1D9F-4324-B19C-BC0124F77379}"/>
   </bookViews>
@@ -79,34 +79,34 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>近くに敵反応を複数確認。\n敵殲滅の推奨。</t>
-    <rPh sb="0" eb="1">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ハンノウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>テキセンメツ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>スイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>近くに強い敵反応の確認。\n敵殲滅の推奨。</t>
     <rPh sb="3" eb="4">
       <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くに敵反応を複数確認。/敵殲滅の推奨。</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>テキセンメツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>テキ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -154,9 +154,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -475,7 +478,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -502,8 +505,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -525,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelImporter/KengekiTextData.xlsx
+++ b/Assets/ExcelImporter/KengekiTextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\Kengeki\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C05DEA-67E2-4AC6-B773-3C8F9B7BB0E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CDEDD5-8DA0-4831-8B11-68B0B2C5F669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822175BC-1D9F-4324-B19C-BC0124F77379}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1"/>
@@ -48,41 +48,6 @@
   </si>
   <si>
     <t>SystemMSG</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テレポーターの反応を確認。\nいずれかの部屋の敵殲滅時に出現すると予想。</t>
-    <rPh sb="7" eb="9">
-      <t>ハンノウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>センメツ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ヨソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>近くに強い敵反応の確認。\n敵殲滅の推奨。</t>
-    <rPh sb="3" eb="4">
-      <t>ツヨ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -107,6 +72,69 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GameMSG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵からアイテムのドロップを確認。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テレポーターの反応を確認。/いずれかの部屋の敵殲滅時に出現すると予想。</t>
+    <rPh sb="7" eb="9">
+      <t>ハンノウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>センメツ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヨソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くに強い敵反応の確認。/敵殲滅の推奨。</t>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SystemMSG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テレポーターの出現を確認。</t>
+    <rPh sb="7" eb="9">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -475,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528FC6B-2732-47A6-A291-75D5508912C1}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -506,7 +534,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -517,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -528,7 +556,29 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/ExcelImporter/KengekiTextData.xlsx
+++ b/Assets/ExcelImporter/KengekiTextData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\Kengeki\Assets\ExcelImporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CDEDD5-8DA0-4831-8B11-68B0B2C5F669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E391DC-24BC-4357-8261-C4042F57EC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{822175BC-1D9F-4324-B19C-BC0124F77379}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Path</t>
     <phoneticPr fontId="1"/>
@@ -135,6 +135,29 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力が少なくなってます。/推奨、体力の回復</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カイフク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -503,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F528FC6B-2732-47A6-A291-75D5508912C1}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -581,6 +604,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
